--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562061.4903523555</v>
+        <v>-562801.9531730779</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406076</v>
+        <v>1462975.848406075</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>13.2513794220489</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.084518104593</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642671</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874605</v>
+        <v>65.87283976874606</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.18341408247065</v>
       </c>
       <c r="U11" t="n">
         <v>119.5889224048975</v>
@@ -1430,10 +1430,10 @@
         <v>196.0356574374222</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>28.55862982484176</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
         <v>254.5213376233409</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715467</v>
       </c>
       <c r="C12" t="n">
         <v>40.99189795560306</v>
@@ -1458,7 +1458,7 @@
         <v>25.92847942268827</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.3526113606712</v>
       </c>
       <c r="G12" t="n">
         <v>5.358526637115014</v>
@@ -1467,7 +1467,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
-        <v>6.306244095362392</v>
+        <v>6.306244095362342</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U12" t="n">
-        <v>94.20712384475011</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>119.9783821282069</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.0563841707648</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>73.96609474459169</v>
       </c>
     </row>
     <row r="13">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>164.041652629196</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9664405879704</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0845181045932</v>
+        <v>283.0845181045931</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711097</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642688</v>
+        <v>7.081202501340066</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874622</v>
+        <v>65.87283976874615</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247082</v>
+        <v>89.18341408247073</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048976</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457565</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.5213376233411</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715484</v>
+        <v>34.81658261715475</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560324</v>
+        <v>40.99189795560315</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192625</v>
+        <v>15.72846453192616</v>
       </c>
       <c r="E15" t="n">
-        <v>25.92847942268844</v>
+        <v>25.92847942268835</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.35261136067129</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0751276698277</v>
+        <v>5.3585266371151</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.49414262488439</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622717</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T15" t="n">
-        <v>67.3663296602717</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
-        <v>94.20712384475029</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0839861167128</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>226.0676559839923</v>
+        <v>152.4338503596136</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>74.05638417076489</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459186</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922479</v>
+        <v>48.11537914922471</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591533</v>
+        <v>35.53022006591524</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549985</v>
+        <v>16.89887198549977</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385667</v>
+        <v>14.71736161385658</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021874</v>
+        <v>13.70444699021866</v>
       </c>
       <c r="G16" t="n">
-        <v>36.0493695902814</v>
+        <v>36.04936959028132</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304866</v>
+        <v>28.51003926304858</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755893006</v>
+        <v>16.96724755892998</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437375</v>
+        <v>35.45957938437367</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529501</v>
+        <v>88.37870840529494</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494645</v>
+        <v>95.26758743494636</v>
       </c>
       <c r="U16" t="n">
         <v>154.5901551200257</v>
       </c>
       <c r="V16" t="n">
-        <v>120.4210422911155</v>
+        <v>120.4210422911154</v>
       </c>
       <c r="W16" t="n">
-        <v>154.8063973038785</v>
+        <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632465</v>
+        <v>93.99305435632456</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938229</v>
+        <v>86.8680523193822</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D17" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E17" t="n">
         <v>144.5508808461439</v>
       </c>
       <c r="F17" t="n">
-        <v>169.4965565155935</v>
+        <v>169.4965565155933</v>
       </c>
       <c r="G17" t="n">
         <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149225</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W17" t="n">
         <v>111.8614794912951</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>63.19530776876989</v>
       </c>
       <c r="U18" t="n">
         <v>225.9237248774628</v>
@@ -1986,10 +1986,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>114.3620393970408</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>180.4328844084323</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662033</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V19" t="n">
-        <v>14.75815409771008</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W19" t="n">
-        <v>62.32957242027783</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D20" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E20" t="n">
         <v>144.5508808461439</v>
@@ -2096,7 +2096,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149225</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W20" t="n">
         <v>111.8614794912951</v>
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>104.4465297131969</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.49414262488439</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
         <v>225.9237248774628</v>
@@ -2220,10 +2220,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>196.13361340567</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>33.99892176186341</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.92726692662033</v>
+        <v>229.3601513350527</v>
       </c>
       <c r="V22" t="n">
-        <v>14.75815409771008</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W22" t="n">
-        <v>49.14350911047308</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C23" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D23" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E23" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F23" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G23" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H23" t="n">
-        <v>96.9581136777042</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149215</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401692</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W23" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X23" t="n">
         <v>132.3516114523511</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,16 +2406,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.276798211201517</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S24" t="n">
         <v>166.6979539789397</v>
@@ -2454,13 +2454,13 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>237.4811742170816</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>113.1122544509815</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662028</v>
+        <v>229.3601513350526</v>
       </c>
       <c r="V25" t="n">
-        <v>14.75815409771002</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W25" t="n">
-        <v>49.14350911047302</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068742</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300675</v>
+        <v>47.54538052300676</v>
       </c>
       <c r="T26" t="n">
         <v>70.85595483673134</v>
@@ -2634,19 +2634,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986376</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948964</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>8.505411565584158</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.49414262488439</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>16.65389370048769</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T27" t="n">
-        <v>49.55019725656084</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U27" t="n">
         <v>225.9237248774628</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863427</v>
+        <v>17.13212013863428</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955554</v>
+        <v>70.05124915955555</v>
       </c>
       <c r="T28" t="n">
         <v>76.94012818920697</v>
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068738</v>
+        <v>41.09318678068739</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300671</v>
+        <v>47.54538052300673</v>
       </c>
       <c r="T29" t="n">
         <v>70.85595483673131</v>
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>16.48912337141533</v>
       </c>
       <c r="C30" t="n">
-        <v>160.0395343029232</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>5.906416851771035</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948936</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048766</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>49.03887041453219</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U30" t="n">
-        <v>75.87966459901078</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>55.72892492502547</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863424</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955551</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T31" t="n">
         <v>76.94012818920694</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850285</v>
       </c>
       <c r="C32" t="n">
         <v>215.2288314925555</v>
@@ -3035,10 +3035,10 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938097</v>
       </c>
       <c r="F32" t="n">
-        <v>256.8319854632595</v>
+        <v>256.8319854632594</v>
       </c>
       <c r="G32" t="n">
         <v>264.7570588588537</v>
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068738</v>
+        <v>41.09318678068736</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300671</v>
+        <v>47.5453805230067</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673131</v>
+        <v>70.85595483673129</v>
       </c>
       <c r="U32" t="n">
         <v>101.2614631591581</v>
@@ -3095,7 +3095,7 @@
         <v>219.687040400017</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776015</v>
       </c>
     </row>
     <row r="33">
@@ -3111,19 +3111,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>46.30711036929353</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948907</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H33" t="n">
-        <v>96.97440207553711</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S33" t="n">
-        <v>16.65389370048766</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T33" t="n">
-        <v>49.03887041453219</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U33" t="n">
-        <v>75.87966459901078</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,10 +3171,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>55.72892492502547</v>
+        <v>55.72892492502544</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885232</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348529</v>
+        <v>29.78791990348526</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017583</v>
+        <v>17.2027608201758</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.7219103445419</v>
+        <v>17.72191034454187</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730916</v>
+        <v>10.18258001730913</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863424</v>
+        <v>17.13212013863422</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955551</v>
+        <v>70.0512491595555</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920694</v>
+        <v>76.94012818920692</v>
       </c>
       <c r="U34" t="n">
         <v>136.2626958742862</v>
@@ -3250,10 +3250,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058514</v>
+        <v>75.66559511058512</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364278</v>
+        <v>68.54059307364275</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>117.303552394565</v>
       </c>
       <c r="E35" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F35" t="n">
         <v>169.4965565155935</v>
@@ -3281,7 +3281,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149218</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W35" t="n">
         <v>111.8614794912951</v>
@@ -3332,7 +3332,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="36">
@@ -3348,22 +3348,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>50.94938288667492</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>14.31549393480165</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>60.90696965862334</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.45106251930777</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>102.9818218891249</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="U37" t="n">
-        <v>48.92726692662031</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V37" t="n">
-        <v>14.75815409771005</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W37" t="n">
-        <v>49.14350911047305</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D38" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
         <v>144.5508808461439</v>
@@ -3518,7 +3518,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3582,10 +3582,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>46.48996386625434</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>23.79712696323041</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>229.3601513350528</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V40" t="n">
-        <v>14.7581540977101</v>
+        <v>195.1910385061425</v>
       </c>
       <c r="W40" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3816,25 +3816,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.49414262488439</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S42" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>5.023709762279489</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V42" t="n">
-        <v>91.83239492475586</v>
+        <v>11.90057203424197</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>251.3692521931903</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3949,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475652</v>
+        <v>6.084173352475653</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755497</v>
+        <v>185.507389486854</v>
       </c>
       <c r="V43" t="n">
-        <v>151.3382766579438</v>
+        <v>31.23762820864471</v>
       </c>
       <c r="W43" t="n">
         <v>65.62298322140771</v>
@@ -4059,16 +4059,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>13.90293198799654</v>
+        <v>103.5522535221152</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
         <v>199.0829306929842</v>
@@ -4113,16 +4113,16 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>11.90057203424195</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352475624</v>
+        <v>6.084173352475625</v>
       </c>
       <c r="U46" t="n">
-        <v>185.5073894868543</v>
+        <v>185.5073894868542</v>
       </c>
       <c r="V46" t="n">
         <v>31.23762820864468</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>625.6993962571302</v>
+        <v>266.3493522641308</v>
       </c>
       <c r="C11" t="n">
-        <v>389.7839510669332</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D11" t="n">
-        <v>389.7839510669332</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E11" t="n">
-        <v>389.7839510669332</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F11" t="n">
-        <v>376.3987193274893</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G11" t="n">
-        <v>90.45476164608215</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45476164608215</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I11" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
         <v>60.75260108020962</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550288</v>
+        <v>485.3806706550284</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241027</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N11" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O11" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P11" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q11" t="n">
         <v>1521.6953536967</v>
@@ -5066,25 +5066,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S11" t="n">
-        <v>1455.157131708068</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="T11" t="n">
-        <v>1455.157131708068</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U11" t="n">
-        <v>1334.36024038999</v>
+        <v>1244.275983741029</v>
       </c>
       <c r="V11" t="n">
-        <v>1136.344424796634</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="W11" t="n">
-        <v>1136.344424796634</v>
+        <v>1017.4130673145</v>
       </c>
       <c r="X11" t="n">
-        <v>1136.344424796634</v>
+        <v>776.9943808036346</v>
       </c>
       <c r="Y11" t="n">
-        <v>879.2521645710372</v>
+        <v>519.9021205780377</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>382.985615959801</v>
+        <v>249.9385442095861</v>
       </c>
       <c r="C12" t="n">
-        <v>341.5796584288888</v>
+        <v>208.5325866786739</v>
       </c>
       <c r="D12" t="n">
-        <v>325.6923205178524</v>
+        <v>192.6452487676374</v>
       </c>
       <c r="E12" t="n">
-        <v>299.5019372626116</v>
+        <v>166.4548655123968</v>
       </c>
       <c r="F12" t="n">
         <v>152.9673792894966</v>
       </c>
       <c r="G12" t="n">
-        <v>147.5547261206936</v>
+        <v>147.5547261206935</v>
       </c>
       <c r="H12" t="n">
-        <v>36.80385060460308</v>
+        <v>36.80385060460303</v>
       </c>
       <c r="I12" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J12" t="n">
-        <v>30.433907073934</v>
+        <v>40.49277633162774</v>
       </c>
       <c r="K12" t="n">
-        <v>30.433907073934</v>
+        <v>208.7559636618386</v>
       </c>
       <c r="L12" t="n">
-        <v>318.0889236932636</v>
+        <v>496.4109802811681</v>
       </c>
       <c r="M12" t="n">
-        <v>694.7085237331969</v>
+        <v>496.4109802811681</v>
       </c>
       <c r="N12" t="n">
-        <v>1071.32812377313</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O12" t="n">
         <v>1185.002115453613</v>
@@ -5148,22 +5148,22 @@
         <v>1486.360653751016</v>
       </c>
       <c r="T12" t="n">
-        <v>1285.266784364164</v>
+        <v>1285.266784364163</v>
       </c>
       <c r="U12" t="n">
-        <v>1190.10807340987</v>
+        <v>1057.061001659655</v>
       </c>
       <c r="V12" t="n">
-        <v>954.9559651781278</v>
+        <v>821.9088934279127</v>
       </c>
       <c r="W12" t="n">
-        <v>833.765680200141</v>
+        <v>567.6715366997112</v>
       </c>
       <c r="X12" t="n">
-        <v>758.961251744823</v>
+        <v>359.8200364941783</v>
       </c>
       <c r="Y12" t="n">
-        <v>551.200952979869</v>
+        <v>285.1068094794393</v>
       </c>
     </row>
     <row r="13">
@@ -5188,22 +5188,22 @@
         <v>112.7840650661154</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946773</v>
+        <v>76.37056042946772</v>
       </c>
       <c r="H13" t="n">
         <v>47.57254097184298</v>
       </c>
       <c r="I13" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>69.24603200060724</v>
+        <v>84.15679020220485</v>
       </c>
       <c r="K13" t="n">
         <v>203.479174868536</v>
       </c>
       <c r="L13" t="n">
-        <v>263.9114356143786</v>
+        <v>394.3108706367642</v>
       </c>
       <c r="M13" t="n">
         <v>468.4173394595703</v>
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>581.0663979851762</v>
+        <v>548.7492214112104</v>
       </c>
       <c r="C14" t="n">
-        <v>581.0663979851762</v>
+        <v>548.7492214112104</v>
       </c>
       <c r="D14" t="n">
-        <v>581.0663979851762</v>
+        <v>323.5305945546746</v>
       </c>
       <c r="E14" t="n">
-        <v>581.0663979851762</v>
+        <v>323.5305945546746</v>
       </c>
       <c r="F14" t="n">
-        <v>581.0663979851762</v>
+        <v>323.5305945546746</v>
       </c>
       <c r="G14" t="n">
-        <v>295.1224403037689</v>
+        <v>37.58663687326739</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608237</v>
+        <v>37.58663687326739</v>
       </c>
       <c r="I14" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L14" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550286</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241025</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5312,16 +5312,16 @@
         <v>1244.275983741029</v>
       </c>
       <c r="V14" t="n">
-        <v>1244.275983741029</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="W14" t="n">
-        <v>1244.275983741029</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="X14" t="n">
-        <v>1003.857297230163</v>
+        <v>805.8414816368074</v>
       </c>
       <c r="Y14" t="n">
-        <v>746.7650370045661</v>
+        <v>548.7492214112104</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>590.6284307249192</v>
+        <v>132.817725162827</v>
       </c>
       <c r="C15" t="n">
-        <v>549.2224731940069</v>
+        <v>91.41176763191471</v>
       </c>
       <c r="D15" t="n">
-        <v>533.3351352829702</v>
+        <v>75.52442972087819</v>
       </c>
       <c r="E15" t="n">
-        <v>507.1447520277294</v>
+        <v>49.33404646563742</v>
       </c>
       <c r="F15" t="n">
-        <v>360.6101940546143</v>
+        <v>35.84656024273713</v>
       </c>
       <c r="G15" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H15" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I15" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J15" t="n">
-        <v>30.43390707393399</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K15" t="n">
-        <v>198.6970944041448</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="L15" t="n">
-        <v>486.3521110234744</v>
+        <v>342.4531504565509</v>
       </c>
       <c r="M15" t="n">
-        <v>862.9717110634076</v>
+        <v>719.0727504964841</v>
       </c>
       <c r="N15" t="n">
-        <v>1239.591311103341</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O15" t="n">
-        <v>1288.313760533885</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P15" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q15" t="n">
         <v>1521.6953536967</v>
@@ -5382,25 +5382,25 @@
         <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1402.023135948102</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T15" t="n">
-        <v>1333.976338311464</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U15" t="n">
-        <v>1238.817627357171</v>
+        <v>839.676412106527</v>
       </c>
       <c r="V15" t="n">
-        <v>1136.712590875643</v>
+        <v>604.5243038747842</v>
       </c>
       <c r="W15" t="n">
-        <v>908.3614232150446</v>
+        <v>450.5507176529523</v>
       </c>
       <c r="X15" t="n">
-        <v>700.5099230095118</v>
+        <v>375.7462891976342</v>
       </c>
       <c r="Y15" t="n">
-        <v>625.7966959947726</v>
+        <v>167.9859904326803</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858034</v>
+        <v>194.4516414858028</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081112</v>
+        <v>158.5625303081107</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459901</v>
+        <v>141.4929626459897</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138116</v>
+        <v>126.6269408138113</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661159</v>
+        <v>112.7840650661157</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946806</v>
+        <v>76.37056042946789</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184315</v>
+        <v>47.57254097184306</v>
       </c>
       <c r="I16" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220469</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K16" t="n">
-        <v>203.4791748685397</v>
+        <v>164.6670499418626</v>
       </c>
       <c r="L16" t="n">
-        <v>263.9114356143823</v>
+        <v>263.9114356143804</v>
       </c>
       <c r="M16" t="n">
-        <v>468.4173394595738</v>
+        <v>468.417339459572</v>
       </c>
       <c r="N16" t="n">
-        <v>676.5957735341141</v>
+        <v>676.5957735341124</v>
       </c>
       <c r="O16" t="n">
-        <v>862.8204075624664</v>
+        <v>862.8204075624647</v>
       </c>
       <c r="P16" t="n">
-        <v>1017.467262206716</v>
+        <v>1017.467262206714</v>
       </c>
       <c r="Q16" t="n">
-        <v>1081.219273571224</v>
+        <v>1081.219273571223</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.401516617311</v>
+        <v>1045.40151661731</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939857003</v>
+        <v>956.1300939856991</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877746</v>
+        <v>859.9002076877734</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493648</v>
+        <v>703.7485358493637</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936925</v>
+        <v>582.1111193936916</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069466</v>
+        <v>425.7410211069458</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591439</v>
+        <v>330.7985419591432</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658285</v>
+        <v>243.0530345658278</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810898</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852417</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230548</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693742</v>
+        <v>478.793806169374</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243303</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H17" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393407</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020957</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K17" t="n">
         <v>226.9372683326557</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>396.3938765116388</v>
+        <v>364.1243913605165</v>
       </c>
       <c r="C18" t="n">
-        <v>396.3938765116388</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="D18" t="n">
-        <v>396.3938765116388</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="E18" t="n">
-        <v>396.3938765116388</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F18" t="n">
-        <v>249.8593185385238</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G18" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H18" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I18" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J18" t="n">
-        <v>54.79813383722131</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K18" t="n">
-        <v>223.0613211674322</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L18" t="n">
-        <v>353.1729734040491</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M18" t="n">
-        <v>729.7925734439823</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="N18" t="n">
-        <v>1106.412173483915</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="O18" t="n">
-        <v>1418.383708616427</v>
+        <v>1199.307472959206</v>
       </c>
       <c r="P18" t="n">
         <v>1418.383708616427</v>
@@ -5616,28 +5616,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R18" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S18" t="n">
-        <v>1437.357835893786</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T18" t="n">
-        <v>1437.357835893786</v>
+        <v>1289.479937789922</v>
       </c>
       <c r="U18" t="n">
-        <v>1209.152053189278</v>
+        <v>1061.274155085415</v>
       </c>
       <c r="V18" t="n">
-        <v>973.9999449575357</v>
+        <v>826.1220468536719</v>
       </c>
       <c r="W18" t="n">
-        <v>719.7625882293341</v>
+        <v>571.8846901254703</v>
       </c>
       <c r="X18" t="n">
-        <v>511.9110880238013</v>
+        <v>571.8846901254703</v>
       </c>
       <c r="Y18" t="n">
-        <v>396.3938765116388</v>
+        <v>364.1243913605165</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>199.3700900018409</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C19" t="n">
         <v>30.43390707393399</v>
@@ -5674,49 +5674,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531982</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M19" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N19" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O19" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P19" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R19" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S19" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T19" t="n">
-        <v>326.6579621681119</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="U19" t="n">
-        <v>277.2364804240509</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V19" t="n">
-        <v>262.3292540627276</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W19" t="n">
-        <v>199.3700900018409</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X19" t="n">
-        <v>199.3700900018409</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y19" t="n">
-        <v>199.3700900018409</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852415</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D20" t="n">
         <v>624.8047969230547</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693742</v>
+        <v>478.793806169374</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243302</v>
+        <v>307.58516322433</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H20" t="n">
         <v>30.43390707393399</v>
@@ -5750,13 +5750,13 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020957</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K20" t="n">
         <v>226.9372683326557</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M20" t="n">
         <v>789.5552979241023</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>135.9354522387794</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C21" t="n">
         <v>30.43390707393399</v>
@@ -5829,19 +5829,19 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J21" t="n">
-        <v>54.79813383722131</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K21" t="n">
-        <v>223.0613211674322</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L21" t="n">
-        <v>510.7163377867618</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="M21" t="n">
-        <v>510.7163377867618</v>
+        <v>599.6809212073654</v>
       </c>
       <c r="N21" t="n">
-        <v>887.3359378266949</v>
+        <v>976.3005212472985</v>
       </c>
       <c r="O21" t="n">
         <v>1185.002115453613</v>
@@ -5856,25 +5856,25 @@
         <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1437.357835893786</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T21" t="n">
-        <v>1437.357835893786</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U21" t="n">
-        <v>1209.152053189278</v>
+        <v>839.676412106527</v>
       </c>
       <c r="V21" t="n">
-        <v>973.9999449575357</v>
+        <v>604.5243038747842</v>
       </c>
       <c r="W21" t="n">
-        <v>719.7625882293341</v>
+        <v>406.4095428589559</v>
       </c>
       <c r="X21" t="n">
-        <v>511.9110880238013</v>
+        <v>406.4095428589559</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.1507892588474</v>
+        <v>198.649244094002</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>212.6893458703306</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C22" t="n">
-        <v>212.6893458703306</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D22" t="n">
-        <v>212.6893458703306</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E22" t="n">
-        <v>64.77625228793744</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F22" t="n">
-        <v>64.77625228793744</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G22" t="n">
         <v>30.43390707393399</v>
@@ -5911,49 +5911,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K22" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531982</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M22" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N22" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O22" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P22" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R22" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S22" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T22" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U22" t="n">
-        <v>277.2364804240509</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V22" t="n">
-        <v>262.3292540627276</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6893458703306</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X22" t="n">
-        <v>212.6893458703306</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.6893458703306</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.47848878109</v>
+        <v>872.4784887810904</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852419</v>
+        <v>743.2932336852422</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230551</v>
+        <v>624.8047969230554</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693744</v>
+        <v>478.7938061693749</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243305</v>
+        <v>307.5851632243309</v>
       </c>
       <c r="G23" t="n">
-        <v>128.3713956372715</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H23" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020955</v>
+        <v>60.75260108020957</v>
       </c>
       <c r="K23" t="n">
         <v>226.9372683326556</v>
@@ -5996,7 +5996,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6008,31 +6008,31 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="R23" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="S23" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="T23" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V23" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W23" t="n">
         <v>1303.351633548413</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y23" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>702.375511395294</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="C24" t="n">
-        <v>527.922482114167</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="D24" t="n">
-        <v>527.922482114167</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="E24" t="n">
-        <v>368.6850271087114</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="F24" t="n">
-        <v>222.1504691355964</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="G24" t="n">
-        <v>222.1504691355964</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="H24" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="I24" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="J24" t="n">
-        <v>54.79813383722129</v>
+        <v>54.79813383722132</v>
       </c>
       <c r="K24" t="n">
-        <v>223.0613211674321</v>
+        <v>208.7559636618396</v>
       </c>
       <c r="L24" t="n">
-        <v>510.7163377867618</v>
+        <v>496.4109802811691</v>
       </c>
       <c r="M24" t="n">
-        <v>887.3359378266947</v>
+        <v>873.0305803211027</v>
       </c>
       <c r="N24" t="n">
-        <v>976.342225401373</v>
+        <v>873.0305803211027</v>
       </c>
       <c r="O24" t="n">
-        <v>1288.313760533885</v>
+        <v>1185.002115453614</v>
       </c>
       <c r="P24" t="n">
-        <v>1521.695353696699</v>
+        <v>1418.383708616428</v>
       </c>
       <c r="Q24" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="R24" t="n">
-        <v>1521.41575954397</v>
+        <v>1437.357835893788</v>
       </c>
       <c r="S24" t="n">
-        <v>1353.033987848071</v>
+        <v>1268.976064197889</v>
       </c>
       <c r="T24" t="n">
-        <v>1353.033987848071</v>
+        <v>1268.976064197889</v>
       </c>
       <c r="U24" t="n">
-        <v>1124.828205143564</v>
+        <v>1040.770281493381</v>
       </c>
       <c r="V24" t="n">
-        <v>1124.828205143564</v>
+        <v>805.6181732616385</v>
       </c>
       <c r="W24" t="n">
-        <v>870.590848415362</v>
+        <v>565.7381993049904</v>
       </c>
       <c r="X24" t="n">
-        <v>870.590848415362</v>
+        <v>357.8866990994576</v>
       </c>
       <c r="Y24" t="n">
-        <v>870.590848415362</v>
+        <v>357.8866990994576</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="C25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="D25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="E25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="F25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="G25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="H25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="I25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="J25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26761491947718</v>
+        <v>34.2676149194772</v>
       </c>
       <c r="L25" t="n">
         <v>94.69987566531981</v>
@@ -6157,40 +6157,40 @@
         <v>168.8063444881259</v>
       </c>
       <c r="N25" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O25" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q25" t="n">
-        <v>258.657325847454</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R25" t="n">
-        <v>258.657325847454</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S25" t="n">
-        <v>258.657325847454</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T25" t="n">
-        <v>144.4025233717151</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U25" t="n">
-        <v>94.98104162765422</v>
+        <v>94.98104162765443</v>
       </c>
       <c r="V25" t="n">
-        <v>80.07381526633097</v>
+        <v>80.0738152663311</v>
       </c>
       <c r="W25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="X25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393402</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514025</v>
       </c>
       <c r="D26" t="n">
         <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028714</v>
+        <v>809.8470710028721</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601851</v>
+        <v>550.4208230601857</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754843</v>
+        <v>282.989450475485</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450501</v>
       </c>
       <c r="I26" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="J26" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210061</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L26" t="n">
         <v>955.9037100471598</v>
@@ -6236,7 +6236,7 @@
         <v>1408.621956991901</v>
       </c>
       <c r="N26" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O26" t="n">
         <v>2233.040522606063</v>
@@ -6251,22 +6251,22 @@
         <v>2766.304371953158</v>
       </c>
       <c r="S26" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y26" t="n">
         <v>1703.224751824715</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>684.485539360012</v>
+        <v>381.8827174257938</v>
       </c>
       <c r="C27" t="n">
-        <v>510.032510078885</v>
+        <v>358.989344991588</v>
       </c>
       <c r="D27" t="n">
-        <v>361.0981004176337</v>
+        <v>210.0549353303367</v>
       </c>
       <c r="E27" t="n">
-        <v>201.8606454121782</v>
+        <v>202.3771371718024</v>
       </c>
       <c r="F27" t="n">
-        <v>55.32608743906317</v>
+        <v>193.785812358081</v>
       </c>
       <c r="G27" t="n">
         <v>55.32608743906317</v>
@@ -6303,52 +6303,52 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235048</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K27" t="n">
         <v>247.9535015325613</v>
       </c>
       <c r="L27" t="n">
-        <v>535.608518151891</v>
+        <v>535.6085181518908</v>
       </c>
       <c r="M27" t="n">
-        <v>923.2675763763536</v>
+        <v>923.2675763763534</v>
       </c>
       <c r="N27" t="n">
         <v>1336.893829743946</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.865364876458</v>
+        <v>1648.865364876457</v>
       </c>
       <c r="P27" t="n">
-        <v>1882.246958039272</v>
+        <v>1882.246958039271</v>
       </c>
       <c r="Q27" t="n">
-        <v>1985.558603119545</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
         <v>1901.221085316631</v>
       </c>
       <c r="S27" t="n">
-        <v>1884.398970467654</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T27" t="n">
-        <v>1834.348266168098</v>
+        <v>1531.745444233879</v>
       </c>
       <c r="U27" t="n">
-        <v>1606.14248346359</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V27" t="n">
-        <v>1370.990375231847</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W27" t="n">
-        <v>1116.753018503646</v>
+        <v>814.1501965694274</v>
       </c>
       <c r="X27" t="n">
-        <v>908.9015182981127</v>
+        <v>606.2986963638946</v>
       </c>
       <c r="Y27" t="n">
-        <v>852.70087638008</v>
+        <v>550.0980544458619</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8889674209086</v>
+        <v>92.73818863237909</v>
       </c>
       <c r="C28" t="n">
-        <v>83.51244133992287</v>
+        <v>75.36166255139338</v>
       </c>
       <c r="D28" t="n">
-        <v>83.51244133992287</v>
+        <v>75.36166255139338</v>
       </c>
       <c r="E28" t="n">
-        <v>83.51244133992287</v>
+        <v>78.93565920695735</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992287</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="G28" t="n">
-        <v>65.61152179998153</v>
+        <v>65.61152179998155</v>
       </c>
       <c r="H28" t="n">
         <v>55.32608743906317</v>
@@ -6385,49 +6385,49 @@
         <v>55.32608743906317</v>
       </c>
       <c r="K28" t="n">
-        <v>59.15979528460637</v>
+        <v>207.7034149602738</v>
       </c>
       <c r="L28" t="n">
         <v>268.1356757061164</v>
       </c>
       <c r="M28" t="n">
-        <v>342.2421445289226</v>
+        <v>342.2421445289225</v>
       </c>
       <c r="N28" t="n">
-        <v>420.0211435810775</v>
+        <v>435.7326968682753</v>
       </c>
       <c r="O28" t="n">
-        <v>624.3899622627118</v>
+        <v>640.1015155499097</v>
       </c>
       <c r="P28" t="n">
-        <v>797.1810015602433</v>
+        <v>812.8925548474411</v>
       </c>
       <c r="Q28" t="n">
-        <v>821.0433336359706</v>
+        <v>812.8925548474411</v>
       </c>
       <c r="R28" t="n">
-        <v>803.7381617787643</v>
+        <v>795.5873829902348</v>
       </c>
       <c r="S28" t="n">
-        <v>732.9793242438597</v>
+        <v>724.8285454553302</v>
       </c>
       <c r="T28" t="n">
-        <v>655.2620230426405</v>
+        <v>647.1112442541111</v>
       </c>
       <c r="U28" t="n">
-        <v>517.6229363009372</v>
+        <v>509.4721575124078</v>
       </c>
       <c r="V28" t="n">
-        <v>414.4981049419715</v>
+        <v>406.3473261534421</v>
       </c>
       <c r="W28" t="n">
-        <v>276.6405917519321</v>
+        <v>268.4898129634026</v>
       </c>
       <c r="X28" t="n">
-        <v>200.210697700836</v>
+        <v>192.0599189123065</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9777754042271</v>
+        <v>122.8269966156976</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C29" t="n">
         <v>1250.781708514024</v>
       </c>
       <c r="D29" t="n">
-        <v>1044.075666754194</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028714</v>
+        <v>809.847071002872</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601851</v>
+        <v>550.4208230601856</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754843</v>
+        <v>282.9894504754849</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450495</v>
+        <v>96.83435691450489</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906317</v>
@@ -6464,16 +6464,16 @@
         <v>234.1884011210063</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L29" t="n">
-        <v>955.90371004716</v>
+        <v>955.9037100471601</v>
       </c>
       <c r="M29" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N29" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O29" t="n">
         <v>2233.040522606063</v>
@@ -6500,13 +6500,13 @@
         <v>2364.919526790957</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X29" t="n">
         <v>1941.804426953606</v>
       </c>
       <c r="Y29" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824716</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>920.8992057694713</v>
+        <v>381.8827174257939</v>
       </c>
       <c r="C30" t="n">
-        <v>759.2431105139933</v>
+        <v>207.4296881446669</v>
       </c>
       <c r="D30" t="n">
-        <v>610.308700852742</v>
+        <v>201.4636105166153</v>
       </c>
       <c r="E30" t="n">
-        <v>451.0712458472866</v>
+        <v>193.785812358081</v>
       </c>
       <c r="F30" t="n">
-        <v>304.5366878741715</v>
+        <v>193.785812358081</v>
       </c>
       <c r="G30" t="n">
-        <v>166.0769629551536</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H30" t="n">
         <v>55.32608743906317</v>
@@ -6540,52 +6540,52 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J30" t="n">
-        <v>79.69031420235048</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K30" t="n">
         <v>247.9535015325613</v>
       </c>
       <c r="L30" t="n">
-        <v>535.608518151891</v>
+        <v>535.6085181518908</v>
       </c>
       <c r="M30" t="n">
-        <v>923.2675763763536</v>
+        <v>923.2675763763534</v>
       </c>
       <c r="N30" t="n">
         <v>1336.893829743946</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.865364876458</v>
+        <v>1648.865364876457</v>
       </c>
       <c r="P30" t="n">
-        <v>1882.246958039272</v>
+        <v>1882.246958039271</v>
       </c>
       <c r="Q30" t="n">
-        <v>1985.558603119545</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="R30" t="n">
-        <v>1985.558603119545</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T30" t="n">
-        <v>1919.202275730636</v>
+        <v>1531.745444233879</v>
       </c>
       <c r="U30" t="n">
-        <v>1842.556149873049</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V30" t="n">
-        <v>1607.404041641307</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W30" t="n">
-        <v>1353.166684913105</v>
+        <v>814.1501965694274</v>
       </c>
       <c r="X30" t="n">
-        <v>1296.874841554493</v>
+        <v>606.2986963638946</v>
       </c>
       <c r="Y30" t="n">
-        <v>1089.114542789539</v>
+        <v>398.5383975989407</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.3149707653445</v>
+        <v>91.3238872447417</v>
       </c>
       <c r="C31" t="n">
-        <v>79.93844468435881</v>
+        <v>73.94736116375601</v>
       </c>
       <c r="D31" t="n">
-        <v>79.93844468435881</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="E31" t="n">
-        <v>83.51244133992282</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992282</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G31" t="n">
-        <v>65.6115217999815</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H31" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900452</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J31" t="n">
-        <v>128.5397647905573</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K31" t="n">
-        <v>132.3734726361005</v>
+        <v>59.15979528460635</v>
       </c>
       <c r="L31" t="n">
-        <v>192.8057333819431</v>
+        <v>200.536731587886</v>
       </c>
       <c r="M31" t="n">
-        <v>266.9122022047492</v>
+        <v>274.643200410692</v>
       </c>
       <c r="N31" t="n">
-        <v>358.4132829834496</v>
+        <v>352.4221994628469</v>
       </c>
       <c r="O31" t="n">
-        <v>562.7821016650839</v>
+        <v>556.7910181444813</v>
       </c>
       <c r="P31" t="n">
-        <v>735.5731409626154</v>
+        <v>729.5820574420128</v>
       </c>
       <c r="Q31" t="n">
-        <v>817.4693369804062</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R31" t="n">
-        <v>800.1641651231998</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S31" t="n">
-        <v>729.4053275882953</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T31" t="n">
-        <v>651.6880263870762</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U31" t="n">
-        <v>514.0489396453729</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V31" t="n">
-        <v>410.9241082864073</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W31" t="n">
-        <v>273.066595096368</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X31" t="n">
-        <v>196.6367010452718</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.403778748663</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>1468.184568607515</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514025</v>
       </c>
       <c r="D32" t="n">
         <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028723</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601856</v>
+        <v>550.420823060186</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754848</v>
+        <v>282.9894504754852</v>
       </c>
       <c r="H32" t="n">
         <v>96.83435691450495</v>
@@ -6698,13 +6698,13 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K32" t="n">
         <v>548.9166880491198</v>
       </c>
       <c r="L32" t="n">
-        <v>955.90371004716</v>
+        <v>955.9037100471601</v>
       </c>
       <c r="M32" t="n">
         <v>1408.621956991901</v>
@@ -6743,7 +6743,7 @@
         <v>1941.804426953606</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824716</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>920.8992057694713</v>
+        <v>533.4423742727151</v>
       </c>
       <c r="C33" t="n">
-        <v>746.4461764883443</v>
+        <v>358.9893449915882</v>
       </c>
       <c r="D33" t="n">
-        <v>597.5117668270931</v>
+        <v>312.2144860327058</v>
       </c>
       <c r="E33" t="n">
-        <v>438.2743118216376</v>
+        <v>304.5366878741715</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7397538485226</v>
+        <v>304.5366878741715</v>
       </c>
       <c r="G33" t="n">
-        <v>153.2800289295047</v>
+        <v>166.0769629551536</v>
       </c>
       <c r="H33" t="n">
         <v>55.32608743906317</v>
@@ -6777,52 +6777,52 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235048</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K33" t="n">
         <v>247.9535015325613</v>
       </c>
       <c r="L33" t="n">
-        <v>535.608518151891</v>
+        <v>535.6085181518908</v>
       </c>
       <c r="M33" t="n">
-        <v>923.2675763763536</v>
+        <v>923.2675763763534</v>
       </c>
       <c r="N33" t="n">
         <v>1336.893829743946</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.865364876458</v>
+        <v>1648.865364876457</v>
       </c>
       <c r="P33" t="n">
-        <v>1882.246958039272</v>
+        <v>1882.246958039271</v>
       </c>
       <c r="Q33" t="n">
-        <v>1985.558603119545</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1985.558603119545</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S33" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T33" t="n">
-        <v>1919.202275730636</v>
+        <v>1531.745444233879</v>
       </c>
       <c r="U33" t="n">
-        <v>1842.556149873049</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V33" t="n">
-        <v>1607.404041641307</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W33" t="n">
-        <v>1353.166684913105</v>
+        <v>814.1501965694274</v>
       </c>
       <c r="X33" t="n">
-        <v>1296.874841554493</v>
+        <v>757.8583532108158</v>
       </c>
       <c r="Y33" t="n">
-        <v>1089.114542789539</v>
+        <v>701.6577112927832</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.32388724474168</v>
+        <v>91.32388724474153</v>
       </c>
       <c r="C34" t="n">
-        <v>73.947361163756</v>
+        <v>73.94736116375587</v>
       </c>
       <c r="D34" t="n">
-        <v>75.36166255139325</v>
+        <v>75.36166255139315</v>
       </c>
       <c r="E34" t="n">
-        <v>78.93565920695725</v>
+        <v>78.93565920695718</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992282</v>
+        <v>83.51244133992277</v>
       </c>
       <c r="G34" t="n">
-        <v>65.6115217999815</v>
+        <v>65.61152179998149</v>
       </c>
       <c r="H34" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="I34" t="n">
-        <v>56.67269700900452</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J34" t="n">
-        <v>128.5397647905573</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K34" t="n">
-        <v>280.917092311768</v>
+        <v>207.7034149602739</v>
       </c>
       <c r="L34" t="n">
-        <v>489.8929727332781</v>
+        <v>416.679295381784</v>
       </c>
       <c r="M34" t="n">
-        <v>571.730439762027</v>
+        <v>505.0830161041497</v>
       </c>
       <c r="N34" t="n">
-        <v>649.509438814182</v>
+        <v>582.8620151563047</v>
       </c>
       <c r="O34" t="n">
-        <v>705.3346378201488</v>
+        <v>638.6872141622715</v>
       </c>
       <c r="P34" t="n">
-        <v>729.5820574420128</v>
+        <v>811.478253459803</v>
       </c>
       <c r="Q34" t="n">
-        <v>811.4782534598036</v>
+        <v>811.478253459803</v>
       </c>
       <c r="R34" t="n">
-        <v>794.1730816025972</v>
+        <v>794.1730816025968</v>
       </c>
       <c r="S34" t="n">
-        <v>723.4142440676926</v>
+        <v>723.4142440676923</v>
       </c>
       <c r="T34" t="n">
-        <v>645.6969428664735</v>
+        <v>645.6969428664731</v>
       </c>
       <c r="U34" t="n">
-        <v>508.0578561247702</v>
+        <v>508.0578561247698</v>
       </c>
       <c r="V34" t="n">
-        <v>404.9330247658046</v>
+        <v>404.9330247658042</v>
       </c>
       <c r="W34" t="n">
-        <v>267.0755115757652</v>
+        <v>267.0755115757649</v>
       </c>
       <c r="X34" t="n">
-        <v>190.645617524669</v>
+        <v>190.6456175246688</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.4126952280602</v>
+        <v>121.41269522806</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810905</v>
+        <v>872.47848878109</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852425</v>
+        <v>743.2932336852419</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230556</v>
+        <v>624.8047969230551</v>
       </c>
       <c r="E35" t="n">
-        <v>478.793806169375</v>
+        <v>478.7938061693744</v>
       </c>
       <c r="F35" t="n">
-        <v>307.585163224331</v>
+        <v>307.5851632243305</v>
       </c>
       <c r="G35" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H35" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I35" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020958</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6968,19 +6968,19 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U35" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V35" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W35" t="n">
         <v>1303.351633548413</v>
       </c>
       <c r="X35" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y35" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>851.3099210565452</v>
+        <v>204.886936355061</v>
       </c>
       <c r="C36" t="n">
-        <v>676.8568917754183</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D36" t="n">
-        <v>527.922482114167</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E36" t="n">
-        <v>368.6850271087116</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F36" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G36" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H36" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J36" t="n">
-        <v>54.79813383722131</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K36" t="n">
-        <v>168.8296018649924</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L36" t="n">
-        <v>456.484618484322</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M36" t="n">
-        <v>833.1042185242553</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N36" t="n">
-        <v>1209.723818564189</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="O36" t="n">
-        <v>1521.6953536967</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q36" t="n">
         <v>1521.6953536967</v>
@@ -7041,25 +7041,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S36" t="n">
-        <v>1470.231330578847</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T36" t="n">
-        <v>1269.137461191994</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U36" t="n">
-        <v>1269.137461191994</v>
+        <v>924.0139299094404</v>
       </c>
       <c r="V36" t="n">
-        <v>1033.985352960251</v>
+        <v>688.8618216776977</v>
       </c>
       <c r="W36" t="n">
-        <v>1019.525258076613</v>
+        <v>434.624464949496</v>
       </c>
       <c r="X36" t="n">
-        <v>1019.525258076613</v>
+        <v>373.102273375129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1019.525258076613</v>
+        <v>373.102273375129</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C37" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D37" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E37" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F37" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G37" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H37" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I37" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K37" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531984</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M37" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N37" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O37" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P37" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q37" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R37" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S37" t="n">
-        <v>222.6359198558645</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6359198558645</v>
+        <v>144.4025233717153</v>
       </c>
       <c r="U37" t="n">
-        <v>173.2144381118036</v>
+        <v>94.98104162765436</v>
       </c>
       <c r="V37" t="n">
-        <v>158.3072117504803</v>
+        <v>80.07381526633105</v>
       </c>
       <c r="W37" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X37" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810904</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852423</v>
+        <v>743.2932336852415</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230554</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693747</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243307</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H38" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I38" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241027</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N38" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O38" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P38" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q38" t="n">
         <v>1521.6953536967</v>
@@ -7205,16 +7205,16 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V38" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y38" t="n">
         <v>1019.301067000648</v>
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>659.5933589948828</v>
+        <v>383.1654795133675</v>
       </c>
       <c r="C39" t="n">
-        <v>485.1403297137558</v>
+        <v>383.1654795133675</v>
       </c>
       <c r="D39" t="n">
         <v>336.2059200525046</v>
@@ -7239,64 +7239,64 @@
         <v>176.968465047049</v>
       </c>
       <c r="F39" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G39" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H39" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I39" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J39" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K39" t="n">
-        <v>30.433907073934</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L39" t="n">
-        <v>223.1030253215077</v>
+        <v>431.7629153737464</v>
       </c>
       <c r="M39" t="n">
-        <v>599.722625361441</v>
+        <v>808.3825154136796</v>
       </c>
       <c r="N39" t="n">
-        <v>976.3422254013743</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="O39" t="n">
-        <v>1288.313760533886</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P39" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q39" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R39" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S39" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T39" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="U39" t="n">
-        <v>1521.6953536967</v>
+        <v>1040.77028149338</v>
       </c>
       <c r="V39" t="n">
-        <v>1497.657851713639</v>
+        <v>805.6181732616371</v>
       </c>
       <c r="W39" t="n">
-        <v>1243.420494985437</v>
+        <v>551.3808165334356</v>
       </c>
       <c r="X39" t="n">
-        <v>1035.568994779905</v>
+        <v>551.3808165334356</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.8086960149508</v>
+        <v>551.3808165334356</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K40" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531984</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M40" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N40" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O40" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P40" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q40" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R40" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S40" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T40" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U40" t="n">
-        <v>94.98104162765442</v>
+        <v>277.2364804240507</v>
       </c>
       <c r="V40" t="n">
-        <v>80.07381526633108</v>
+        <v>80.07381526633105</v>
       </c>
       <c r="W40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829035</v>
+        <v>976.4306445829033</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416668</v>
+        <v>830.5994560416666</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340915</v>
+        <v>695.4650858340913</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350225</v>
+        <v>532.8081616350222</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445901</v>
+        <v>344.9535852445897</v>
       </c>
       <c r="G41" t="n">
         <v>149.0938842121431</v>
@@ -7406,34 +7406,34 @@
         <v>34.51046220341689</v>
       </c>
       <c r="I41" t="n">
-        <v>63.97560257890036</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J41" t="n">
-        <v>94.29429658517594</v>
+        <v>64.82915620969243</v>
       </c>
       <c r="K41" t="n">
-        <v>306.172280461859</v>
+        <v>231.0138234621385</v>
       </c>
       <c r="L41" t="n">
-        <v>564.6156827842317</v>
+        <v>489.4572257845111</v>
       </c>
       <c r="M41" t="n">
-        <v>868.7903100533057</v>
+        <v>793.6318530535851</v>
       </c>
       <c r="N41" t="n">
-        <v>1163.254803250562</v>
+        <v>1088.096346250842</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.121636316133</v>
+        <v>1320.963179316412</v>
       </c>
       <c r="P41" t="n">
-        <v>1557.19370786547</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q41" t="n">
-        <v>1600.930365825903</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R41" t="n">
-        <v>1702.445641600257</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S41" t="n">
         <v>1725.523110170844</v>
@@ -7448,7 +7448,7 @@
         <v>1586.878916557331</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686392</v>
+        <v>1457.241589686391</v>
       </c>
       <c r="X41" t="n">
         <v>1306.907159824487</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>912.8805145594741</v>
+        <v>193.7479172088724</v>
       </c>
       <c r="C42" t="n">
-        <v>738.4274852783471</v>
+        <v>193.7479172088724</v>
       </c>
       <c r="D42" t="n">
-        <v>589.4930756170959</v>
+        <v>193.7479172088724</v>
       </c>
       <c r="E42" t="n">
-        <v>430.2556206116403</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F42" t="n">
-        <v>283.7210626385253</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G42" t="n">
-        <v>145.2613377195074</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H42" t="n">
         <v>34.51046220341689</v>
@@ -7488,22 +7488,22 @@
         <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>58.8746889667042</v>
+        <v>53.03641441646465</v>
       </c>
       <c r="K42" t="n">
-        <v>227.1378762969151</v>
+        <v>221.2996017466755</v>
       </c>
       <c r="L42" t="n">
-        <v>514.7928929162447</v>
+        <v>508.954618366005</v>
       </c>
       <c r="M42" t="n">
-        <v>663.2320834276534</v>
+        <v>896.6136765904677</v>
       </c>
       <c r="N42" t="n">
-        <v>1076.858336795246</v>
+        <v>1310.23992995806</v>
       </c>
       <c r="O42" t="n">
-        <v>1388.829871927757</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="P42" t="n">
         <v>1622.211465090572</v>
@@ -7518,22 +7518,22 @@
         <v>1472.803820672032</v>
       </c>
       <c r="T42" t="n">
-        <v>1472.803820672032</v>
+        <v>1271.70995128518</v>
       </c>
       <c r="U42" t="n">
-        <v>1467.729366366699</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V42" t="n">
-        <v>1374.969371493209</v>
+        <v>1031.483388748104</v>
       </c>
       <c r="W42" t="n">
-        <v>1120.732014765007</v>
+        <v>777.5750531994272</v>
       </c>
       <c r="X42" t="n">
-        <v>912.8805145594741</v>
+        <v>569.7235529938944</v>
       </c>
       <c r="Y42" t="n">
-        <v>912.8805145594741</v>
+        <v>361.9632542289404</v>
       </c>
     </row>
     <row r="43">
@@ -7570,37 +7570,37 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896009</v>
+        <v>38.34417004896007</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480271</v>
+        <v>98.77643079480268</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697638</v>
+        <v>250.6618986697637</v>
       </c>
       <c r="O43" t="n">
-        <v>306.4870976757307</v>
+        <v>306.4870976757306</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486294</v>
+        <v>324.5888876486293</v>
       </c>
       <c r="U43" t="n">
-        <v>258.5214724591799</v>
+        <v>137.2076861467565</v>
       </c>
       <c r="V43" t="n">
         <v>105.6545263400447</v>
@@ -7643,34 +7643,34 @@
         <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>63.97560257890039</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J44" t="n">
-        <v>139.9876132094129</v>
+        <v>64.82915620969243</v>
       </c>
       <c r="K44" t="n">
-        <v>306.172280461859</v>
+        <v>231.0138234621385</v>
       </c>
       <c r="L44" t="n">
-        <v>564.6156827842317</v>
+        <v>489.4572257845111</v>
       </c>
       <c r="M44" t="n">
-        <v>868.7903100533057</v>
+        <v>793.6318530535851</v>
       </c>
       <c r="N44" t="n">
-        <v>1163.254803250562</v>
+        <v>1088.096346250842</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.121636316133</v>
+        <v>1320.963179316412</v>
       </c>
       <c r="P44" t="n">
-        <v>1557.19370786547</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.930365825903</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R44" t="n">
-        <v>1702.445641600257</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S44" t="n">
         <v>1725.523110170844</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>223.0068571289848</v>
+        <v>609.0306949998346</v>
       </c>
       <c r="C45" t="n">
-        <v>48.55382784785783</v>
+        <v>434.5776657187076</v>
       </c>
       <c r="D45" t="n">
-        <v>48.55382784785783</v>
+        <v>285.6432560574564</v>
       </c>
       <c r="E45" t="n">
-        <v>48.55382784785783</v>
+        <v>285.6432560574564</v>
       </c>
       <c r="F45" t="n">
-        <v>48.55382784785783</v>
+        <v>139.1086980843413</v>
       </c>
       <c r="G45" t="n">
         <v>34.51046220341689</v>
@@ -7725,22 +7725,22 @@
         <v>34.51046220341689</v>
       </c>
       <c r="J45" t="n">
-        <v>58.8746889667042</v>
+        <v>53.03641441646465</v>
       </c>
       <c r="K45" t="n">
-        <v>58.8746889667042</v>
+        <v>221.2996017466755</v>
       </c>
       <c r="L45" t="n">
-        <v>346.5297055860338</v>
+        <v>508.954618366005</v>
       </c>
       <c r="M45" t="n">
-        <v>734.1887638104965</v>
+        <v>896.6136765904677</v>
       </c>
       <c r="N45" t="n">
-        <v>1147.815017178089</v>
+        <v>1310.23992995806</v>
       </c>
       <c r="O45" t="n">
-        <v>1459.786552310601</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="P45" t="n">
         <v>1622.211465090572</v>
@@ -7749,28 +7749,28 @@
         <v>1725.523110170844</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.523110170844</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.429240783992</v>
+        <v>1271.70995128518</v>
       </c>
       <c r="U45" t="n">
-        <v>1296.223458079484</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V45" t="n">
-        <v>1061.071349847741</v>
+        <v>1031.483388748104</v>
       </c>
       <c r="W45" t="n">
-        <v>806.8339931195396</v>
+        <v>777.2460320199027</v>
       </c>
       <c r="X45" t="n">
-        <v>598.9824929140068</v>
+        <v>777.2460320199027</v>
       </c>
       <c r="Y45" t="n">
-        <v>391.2221941490529</v>
+        <v>777.2460320199027</v>
       </c>
     </row>
     <row r="46">
@@ -7807,34 +7807,34 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896009</v>
+        <v>38.34417004896007</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480271</v>
+        <v>98.77643079480268</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697638</v>
+        <v>250.6618986697637</v>
       </c>
       <c r="O46" t="n">
-        <v>306.4870976757307</v>
+        <v>306.4870976757306</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486295</v>
+        <v>324.5888876486293</v>
       </c>
       <c r="U46" t="n">
         <v>137.2076861467565</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.4807052764823</v>
+        <v>111.6411792741527</v>
       </c>
       <c r="K12" t="n">
-        <v>94.50242152751714</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868389</v>
+        <v>74.13025746266388</v>
       </c>
       <c r="N12" t="n">
-        <v>441.961916436827</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
-        <v>193.5617703352864</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,16 +9015,16 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
-        <v>441.9619164368269</v>
+        <v>217.0510374314572</v>
       </c>
       <c r="O15" t="n">
-        <v>127.9541519010053</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,10 +9246,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>211.7056338057697</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868388</v>
+        <v>74.13025746266389</v>
       </c>
       <c r="N18" t="n">
         <v>441.9619164368269</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>82.72378564719548</v>
+        <v>304.012912573681</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,13 +9401,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565155</v>
       </c>
       <c r="M21" t="n">
-        <v>74.13025746266385</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
         <v>441.9619164368269</v>
       </c>
       <c r="O21" t="n">
-        <v>379.4124632104732</v>
+        <v>289.5492476341059</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>250.0153809463235</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868385</v>
+        <v>454.5540958868391</v>
       </c>
       <c r="N24" t="n">
-        <v>151.4434189971755</v>
+        <v>61.53807801265201</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>209.6857225656698</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868389</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N36" t="n">
-        <v>441.961916436827</v>
+        <v>362.2109847065086</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661684</v>
       </c>
       <c r="P36" t="n">
-        <v>82.72378564719548</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K39" t="n">
-        <v>94.50242152751714</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>274.8949934127967</v>
+        <v>315.6997436370673</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5540958868389</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N39" t="n">
-        <v>441.961916436827</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661684</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>120.1937883199649</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>224.068833736814</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>120.1937883199649</v>
       </c>
       <c r="K45" t="n">
-        <v>94.50242152751714</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>246.7893541118127</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23267,16 +23267,16 @@
         <v>250.2137690395491</v>
       </c>
       <c r="F11" t="n">
-        <v>261.9080652869499</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H11" t="n">
         <v>202.6210018711095</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.42064602642672</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247065</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847003</v>
+        <v>188.9657378598586</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457564</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.97558800157205</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C14" t="n">
         <v>233.556290738295</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879705</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395493</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
         <v>275.1594447089989</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>52.33944352508674</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374224</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847005</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -26314,40 +26314,40 @@
         <v>409638.1693585193</v>
       </c>
       <c r="C2" t="n">
-        <v>409638.1693585191</v>
+        <v>409638.1693585193</v>
       </c>
       <c r="D2" t="n">
-        <v>409638.1693585191</v>
+        <v>409638.1693585192</v>
       </c>
       <c r="E2" t="n">
-        <v>351520.1089158407</v>
+        <v>351520.1089158409</v>
       </c>
       <c r="F2" t="n">
-        <v>351520.1089158403</v>
+        <v>351520.1089158406</v>
       </c>
       <c r="G2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="H2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="I2" t="n">
+        <v>410520.8849321419</v>
+      </c>
+      <c r="J2" t="n">
+        <v>410520.8849321415</v>
+      </c>
+      <c r="K2" t="n">
+        <v>410520.8849321417</v>
+      </c>
+      <c r="L2" t="n">
+        <v>410520.8849321415</v>
+      </c>
+      <c r="M2" t="n">
         <v>410520.8849321418</v>
       </c>
-      <c r="J2" t="n">
-        <v>410520.8849321419</v>
-      </c>
-      <c r="K2" t="n">
-        <v>410520.8849321415</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>410520.8849321418</v>
-      </c>
-      <c r="M2" t="n">
-        <v>410520.8849321417</v>
-      </c>
-      <c r="N2" t="n">
-        <v>410520.8849321417</v>
       </c>
       <c r="O2" t="n">
         <v>410520.8849321418</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319206.1449189904</v>
+        <v>319206.1449189903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472433</v>
+        <v>84530.31055472424</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116916.0581612106</v>
+        <v>116916.0581612105</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472433</v>
+        <v>84530.31055472427</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239527</v>
+        <v>87131.09894239517</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510447</v>
+        <v>34584.19673510455</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>302289.1079395697</v>
       </c>
       <c r="G4" t="n">
-        <v>369405.3002414156</v>
+        <v>369405.3002414155</v>
       </c>
       <c r="H4" t="n">
         <v>369405.3002414156</v>
@@ -26451,7 +26451,7 @@
         <v>369405.3002414156</v>
       </c>
       <c r="N4" t="n">
-        <v>369405.3002414155</v>
+        <v>369405.3002414156</v>
       </c>
       <c r="O4" t="n">
         <v>368260.9042823385</v>
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36923.20336678314</v>
+        <v>36923.20336678313</v>
       </c>
       <c r="F5" t="n">
-        <v>36923.20336678312</v>
+        <v>36923.20336678313</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431454</v>
       </c>
       <c r="J5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561135</v>
       </c>
       <c r="K5" t="n">
         <v>57382.03161561136</v>
@@ -26500,10 +26500,10 @@
         <v>57382.03161561136</v>
       </c>
       <c r="M5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="N5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="O5" t="n">
         <v>47518.94570368936</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54887.9400841566</v>
+        <v>-54892.35366202472</v>
       </c>
       <c r="C6" t="n">
-        <v>-54887.94008415672</v>
+        <v>-54892.35366202472</v>
       </c>
       <c r="D6" t="n">
-        <v>-54887.94008415672</v>
+        <v>-54892.35366202478</v>
       </c>
       <c r="E6" t="n">
-        <v>-306898.3473095026</v>
+        <v>-307193.3511895838</v>
       </c>
       <c r="F6" t="n">
-        <v>12307.79760948753</v>
+        <v>12012.79372940625</v>
       </c>
       <c r="G6" t="n">
-        <v>-89220.90257831282</v>
+        <v>-89220.90257831245</v>
       </c>
       <c r="H6" t="n">
-        <v>-4690.592023588397</v>
+        <v>-4690.592023588324</v>
       </c>
       <c r="I6" t="n">
-        <v>-4690.592023588324</v>
+        <v>-4690.592023588295</v>
       </c>
       <c r="J6" t="n">
-        <v>-131621.1203174157</v>
+        <v>-131621.120317416</v>
       </c>
       <c r="K6" t="n">
-        <v>-14705.06215620544</v>
+        <v>-14705.06215620526</v>
       </c>
       <c r="L6" t="n">
-        <v>-99235.37271092957</v>
+        <v>-99235.37271092981</v>
       </c>
       <c r="M6" t="n">
-        <v>-91821.69096598364</v>
+        <v>-91821.69096598358</v>
       </c>
       <c r="N6" t="n">
-        <v>-4690.592023588339</v>
+        <v>-4690.592023588273</v>
       </c>
       <c r="O6" t="n">
         <v>-39843.1617889906</v>
       </c>
       <c r="P6" t="n">
-        <v>-5258.965053886001</v>
+        <v>-5258.965053886059</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>131.7166010327127</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G2" t="n">
         <v>237.3794892261179</v>
@@ -26704,7 +26704,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="I2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="J2" t="n">
         <v>150.044060278452</v>
@@ -26716,7 +26716,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="M2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="N2" t="n">
         <v>237.3794892261179</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="F3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="G3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="H3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="I3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="K3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="L3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="M3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="N3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="O3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="P3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
         <v>380.4238384241749</v>
@@ -26808,7 +26808,7 @@
         <v>380.4238384241749</v>
       </c>
       <c r="I4" t="n">
-        <v>380.4238384241747</v>
+        <v>380.4238384241752</v>
       </c>
       <c r="J4" t="n">
         <v>691.5760929882896</v>
@@ -26820,10 +26820,10 @@
         <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O4" t="n">
         <v>431.3807775427111</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504667</v>
+        <v>44.38117208504676</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.386811458819595e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766595</v>
+        <v>87.33542894766589</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411207</v>
+        <v>27.90169797411212</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641149</v>
+        <v>311.1522545641143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006045</v>
+        <v>69.27158386006022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853607</v>
+        <v>50.95693911853618</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504667</v>
+        <v>44.38117208504676</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C12" t="n">
         <v>131.7166010327127</v>
@@ -28178,7 +28178,7 @@
         <v>131.7166010327127</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G12" t="n">
         <v>131.7166010327127</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>73.84978558475387</v>
+        <v>73.84978558475392</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.49414262488439</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
         <v>131.7166010327127</v>
@@ -28223,19 +28223,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>131.7166010327127</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>131.7166010327127</v>
-      </c>
-      <c r="X12" t="n">
-        <v>131.7166010327127</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28269,16 +28269,16 @@
         <v>131.7166010327127</v>
       </c>
       <c r="J13" t="n">
+        <v>131.7166010327127</v>
+      </c>
+      <c r="K13" t="n">
         <v>116.655229111907</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>131.7166010327127</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>131.7166010327127</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C15" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D15" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E15" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>25.62732717692728</v>
+        <v>99.26113280130602</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327125</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K16" t="n">
-        <v>116.6552291119109</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>39.20416659260118</v>
       </c>
       <c r="M16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="N16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="O16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="P16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="S16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="17">
@@ -28643,25 +28643,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0829306929842</v>
+        <v>135.8876229242143</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28706,10 +28706,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>91.32065638026351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28722,7 +28722,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28743,7 +28743,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J19" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R19" t="n">
         <v>167.1761804170862</v>
@@ -28773,7 +28773,7 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T19" t="n">
-        <v>226.984188467659</v>
+        <v>46.55130405922665</v>
       </c>
       <c r="U19" t="n">
         <v>237.3794892261179</v>
@@ -28782,7 +28782,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="W19" t="n">
-        <v>224.1934259163132</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>68.26196927511883</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28928,10 +28928,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28940,10 +28940,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>55.56136975524964</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28965,13 +28965,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>133.7670488611305</v>
+        <v>167.7659706229939</v>
       </c>
       <c r="H22" t="n">
         <v>160.2266402957612</v>
@@ -28980,7 +28980,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J22" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R22" t="n">
         <v>167.1761804170862</v>
@@ -29013,7 +29013,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>237.3794892261179</v>
+        <v>56.9466048176856</v>
       </c>
       <c r="V22" t="n">
         <v>237.3794892261179</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I23" t="n">
         <v>191.1372470591394</v>
@@ -29080,10 +29080,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.49213974509621e-12</v>
       </c>
       <c r="R23" t="n">
-        <v>118.3593325148251</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S23" t="n">
         <v>197.5894408014587</v>
@@ -29092,19 +29092,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="24">
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -29126,16 +29126,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.21734441368287</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29174,13 +29174,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>14.21380894383802</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -29217,7 +29217,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J25" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R25" t="n">
         <v>167.1761804170862</v>
@@ -29247,16 +29247,16 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T25" t="n">
-        <v>113.8719340166775</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768562</v>
       </c>
       <c r="V25" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W25" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29311,7 +29311,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="O26" t="n">
-        <v>150.0440602784524</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P26" t="n">
         <v>150.044060278452</v>
@@ -29354,19 +29354,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>136.5638008277997</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>109.6433667609296</v>
@@ -29402,10 +29402,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>149.5327334364234</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29439,10 +29439,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29454,19 +29454,19 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>15.87025584565443</v>
       </c>
       <c r="O28" t="n">
         <v>150.044060278452</v>
@@ -29475,7 +29475,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.42399569050909</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R28" t="n">
         <v>150.044060278452</v>
@@ -29588,25 +29588,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C30" t="n">
-        <v>12.6689646853925</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>141.5386487128677</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
         <v>80.15602968011626</v>
@@ -29636,16 +29636,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29673,13 +29673,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E31" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G31" t="n">
         <v>150.044060278452</v>
@@ -29688,22 +29688,22 @@
         <v>150.044060278452</v>
       </c>
       <c r="I31" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J31" t="n">
-        <v>150.044060278452</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>81.76229854286564</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>13.86068861267209</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>150.044060278452</v>
@@ -29831,19 +29831,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>101.1379551953452</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>12.66896468539247</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>80.15602968011626</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29894,7 +29894,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="34">
@@ -29925,10 +29925,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="I34" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J34" t="n">
-        <v>150.044060278452</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K34" t="n">
         <v>150.044060278452</v>
@@ -29937,7 +29937,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="M34" t="n">
-        <v>7.809089096911919</v>
+        <v>14.44166858541379</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,10 +29946,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I35" t="n">
         <v>191.1372470591394</v>
@@ -30040,19 +30040,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="36">
@@ -30068,22 +30068,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,25 +30110,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.49414262488439</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S36" t="n">
-        <v>115.7485710922647</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>237.379489226118</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>144.8660155448541</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -30165,7 +30165,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,25 +30186,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R37" t="n">
         <v>167.1761804170862</v>
       </c>
       <c r="S37" t="n">
-        <v>117.1134875488826</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T37" t="n">
-        <v>226.984188467659</v>
+        <v>46.55130405922657</v>
       </c>
       <c r="U37" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V37" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W37" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -30302,10 +30302,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>100.9551016983844</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>209.0034601861949</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -30402,7 +30402,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J40" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R40" t="n">
         <v>167.1761804170862</v>
@@ -30435,10 +30435,10 @@
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>56.94660481768543</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V40" t="n">
-        <v>237.3794892261179</v>
+        <v>56.94660481768551</v>
       </c>
       <c r="W40" t="n">
         <v>237.3794892261179</v>
@@ -30478,13 +30478,13 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I41" t="n">
-        <v>220.9000151151833</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>46.15486527700702</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30499,16 +30499,16 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>201.7688902471333</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S41" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
         <v>220.9000151151833</v>
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
         <v>80.15602968011626</v>
@@ -30590,22 +30590,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>220.9000151151833</v>
       </c>
-      <c r="V42" t="n">
-        <v>140.9681922246694</v>
-      </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>0.3257309677292994</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30639,7 +30639,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J43" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R43" t="n">
         <v>167.1761804170862</v>
@@ -30672,10 +30672,10 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U43" t="n">
+        <v>100.7993666658843</v>
+      </c>
+      <c r="V43" t="n">
         <v>220.9000151151833</v>
-      </c>
-      <c r="V43" t="n">
-        <v>100.7993666658842</v>
       </c>
       <c r="W43" t="n">
         <v>220.9000151151833</v>
@@ -30715,10 +30715,10 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I44" t="n">
-        <v>220.9000151151833</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J44" t="n">
-        <v>46.15486527700702</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30736,16 +30736,16 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>201.7688902471333</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S44" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T44" t="n">
         <v>220.9000151151833</v>
@@ -30779,16 +30779,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>123.1721956818311</v>
+        <v>33.52287414771249</v>
       </c>
       <c r="H45" t="n">
         <v>109.6433667609296</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30833,16 +30833,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30876,7 +30876,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J46" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R46" t="n">
         <v>167.1761804170862</v>
@@ -30909,7 +30909,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U46" t="n">
-        <v>100.799366665884</v>
+        <v>100.7993666658841</v>
       </c>
       <c r="V46" t="n">
         <v>220.9000151151833</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I11" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P11" t="n">
-        <v>72.13334975483471</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T11" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H12" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J12" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K12" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N12" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R12" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
@@ -31908,31 +31908,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H13" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I13" t="n">
-        <v>6.766626335615721</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J13" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K13" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L13" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N13" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O13" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P13" t="n">
         <v>27.2137837874944</v>
@@ -31944,10 +31944,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U13" t="n">
         <v>0.01227320375262828</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944963</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I14" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529492</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881182</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798603016</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203784</v>
+        <v>89.5050212020378</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P14" t="n">
-        <v>72.13334975483471</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882064</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T14" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948035</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H15" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566877</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J15" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K15" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684183</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935443</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068134</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713474</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095294</v>
       </c>
       <c r="R15" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203595</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H16" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615721</v>
+        <v>6.766626335615717</v>
       </c>
       <c r="J16" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K16" t="n">
-        <v>26.14192399309821</v>
+        <v>26.14192399309819</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M16" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N16" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799861</v>
       </c>
       <c r="O16" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P16" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424315</v>
       </c>
       <c r="R16" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.961400960622547</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262828</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944963</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I17" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529492</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881182</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603016</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203784</v>
+        <v>89.5050212020378</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P17" t="n">
-        <v>72.13334975483471</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882064</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T17" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948035</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H18" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566877</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J18" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K18" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684183</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935443</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068134</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713474</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095294</v>
       </c>
       <c r="R18" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203595</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H19" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I19" t="n">
-        <v>6.766626335615721</v>
+        <v>6.766626335615717</v>
       </c>
       <c r="J19" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K19" t="n">
-        <v>26.14192399309821</v>
+        <v>26.14192399309819</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N19" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799861</v>
       </c>
       <c r="O19" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424315</v>
       </c>
       <c r="R19" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.961400960622547</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262828</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944963</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I20" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J20" t="n">
-        <v>42.57423279529492</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881182</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M20" t="n">
-        <v>88.07979798603016</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N20" t="n">
-        <v>89.50502120203784</v>
+        <v>89.5050212020378</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P20" t="n">
-        <v>72.13334975483471</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882064</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T20" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948035</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H21" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566877</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J21" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K21" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684183</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935443</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068134</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713474</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095294</v>
       </c>
       <c r="R21" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203595</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H22" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I22" t="n">
-        <v>6.766626335615721</v>
+        <v>6.766626335615717</v>
       </c>
       <c r="J22" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K22" t="n">
-        <v>26.14192399309821</v>
+        <v>26.14192399309819</v>
       </c>
       <c r="L22" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M22" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N22" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799861</v>
       </c>
       <c r="O22" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424315</v>
       </c>
       <c r="R22" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.961400960622547</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262828</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944963</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I23" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J23" t="n">
-        <v>42.57423279529492</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881182</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603016</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N23" t="n">
-        <v>89.50502120203784</v>
+        <v>89.5050212020378</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P23" t="n">
-        <v>72.13334975483471</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882064</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T23" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948035</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H24" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566877</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J24" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K24" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684183</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935443</v>
       </c>
       <c r="N24" t="n">
-        <v>69.80363407068134</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713474</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095294</v>
       </c>
       <c r="R24" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203595</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H25" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615721</v>
+        <v>6.766626335615717</v>
       </c>
       <c r="J25" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K25" t="n">
-        <v>26.14192399309821</v>
+        <v>26.14192399309819</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N25" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799861</v>
       </c>
       <c r="O25" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P25" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424315</v>
       </c>
       <c r="R25" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S25" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.961400960622547</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262828</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944963</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I26" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J26" t="n">
-        <v>42.57423279529492</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881182</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603016</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N26" t="n">
-        <v>89.50502120203784</v>
+        <v>89.5050212020378</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P26" t="n">
-        <v>72.13334975483471</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882064</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T26" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948035</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H27" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566877</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J27" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K27" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684183</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935443</v>
       </c>
       <c r="N27" t="n">
-        <v>69.80363407068134</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P27" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713474</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095294</v>
       </c>
       <c r="R27" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203595</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H28" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I28" t="n">
-        <v>6.766626335615721</v>
+        <v>6.766626335615717</v>
       </c>
       <c r="J28" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K28" t="n">
-        <v>26.14192399309821</v>
+        <v>26.14192399309819</v>
       </c>
       <c r="L28" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M28" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N28" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799861</v>
       </c>
       <c r="O28" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P28" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424315</v>
       </c>
       <c r="R28" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S28" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.961400960622547</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262828</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944963</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I29" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J29" t="n">
-        <v>42.57423279529492</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881182</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603016</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N29" t="n">
-        <v>89.50502120203784</v>
+        <v>89.5050212020378</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P29" t="n">
-        <v>72.13334975483471</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882064</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S29" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T29" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948035</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H30" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566877</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J30" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K30" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684183</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935443</v>
       </c>
       <c r="N30" t="n">
-        <v>69.80363407068134</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P30" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713474</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095294</v>
       </c>
       <c r="R30" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203595</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H31" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I31" t="n">
-        <v>6.766626335615721</v>
+        <v>6.766626335615717</v>
       </c>
       <c r="J31" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K31" t="n">
-        <v>26.14192399309821</v>
+        <v>26.14192399309819</v>
       </c>
       <c r="L31" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M31" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N31" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799861</v>
       </c>
       <c r="O31" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P31" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424315</v>
       </c>
       <c r="R31" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S31" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.961400960622547</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262828</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944963</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I32" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J32" t="n">
-        <v>42.57423279529492</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881182</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603016</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N32" t="n">
-        <v>89.50502120203784</v>
+        <v>89.5050212020378</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P32" t="n">
-        <v>72.13334975483471</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882064</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S32" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T32" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948035</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H33" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566877</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J33" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K33" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684183</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935443</v>
       </c>
       <c r="N33" t="n">
-        <v>69.80363407068134</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P33" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713474</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095294</v>
       </c>
       <c r="R33" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203595</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H34" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I34" t="n">
-        <v>6.766626335615721</v>
+        <v>6.766626335615717</v>
       </c>
       <c r="J34" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K34" t="n">
-        <v>26.14192399309821</v>
+        <v>26.14192399309819</v>
       </c>
       <c r="L34" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M34" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N34" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799861</v>
       </c>
       <c r="O34" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P34" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424315</v>
       </c>
       <c r="R34" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S34" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.961400960622547</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262828</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944963</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I35" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J35" t="n">
-        <v>42.57423279529492</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881182</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603016</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N35" t="n">
-        <v>89.50502120203784</v>
+        <v>89.5050212020378</v>
       </c>
       <c r="O35" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P35" t="n">
-        <v>72.13334975483471</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882064</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S35" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T35" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948035</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H36" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566877</v>
       </c>
       <c r="I36" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J36" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K36" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684183</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935443</v>
       </c>
       <c r="N36" t="n">
-        <v>69.80363407068134</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P36" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713474</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095294</v>
       </c>
       <c r="R36" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203595</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H37" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I37" t="n">
-        <v>6.766626335615721</v>
+        <v>6.766626335615717</v>
       </c>
       <c r="J37" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K37" t="n">
-        <v>26.14192399309821</v>
+        <v>26.14192399309819</v>
       </c>
       <c r="L37" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M37" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N37" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799861</v>
       </c>
       <c r="O37" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P37" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424315</v>
       </c>
       <c r="R37" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S37" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.961400960622547</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262828</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944963</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I38" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J38" t="n">
-        <v>42.57423279529492</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881182</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603016</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203784</v>
+        <v>89.5050212020378</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P38" t="n">
-        <v>72.13334975483471</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882064</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S38" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T38" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948035</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H39" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566877</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J39" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K39" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684183</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935443</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068134</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P39" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713474</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095294</v>
       </c>
       <c r="R39" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203595</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H40" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615721</v>
+        <v>6.766626335615717</v>
       </c>
       <c r="J40" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K40" t="n">
-        <v>26.14192399309821</v>
+        <v>26.14192399309819</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M40" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N40" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799861</v>
       </c>
       <c r="O40" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P40" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424315</v>
       </c>
       <c r="R40" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S40" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.961400960622547</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262828</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944963</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I41" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J41" t="n">
-        <v>42.57423279529492</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881182</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603016</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N41" t="n">
-        <v>89.50502120203784</v>
+        <v>89.5050212020378</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P41" t="n">
-        <v>72.13334975483471</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882064</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S41" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T41" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948035</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H42" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566877</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J42" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K42" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684183</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935443</v>
       </c>
       <c r="N42" t="n">
-        <v>69.80363407068134</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P42" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713474</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095294</v>
       </c>
       <c r="R42" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203595</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H43" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I43" t="n">
-        <v>6.766626335615721</v>
+        <v>6.766626335615717</v>
       </c>
       <c r="J43" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K43" t="n">
-        <v>26.14192399309821</v>
+        <v>26.14192399309819</v>
       </c>
       <c r="L43" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M43" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N43" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799861</v>
       </c>
       <c r="O43" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P43" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424315</v>
       </c>
       <c r="R43" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S43" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.961400960622547</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262828</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944963</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I44" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J44" t="n">
-        <v>42.57423279529492</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881182</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603016</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N44" t="n">
-        <v>89.50502120203784</v>
+        <v>89.5050212020378</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749711</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P44" t="n">
-        <v>72.13334975483471</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882064</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S44" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T44" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948035</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H45" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566877</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J45" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K45" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684183</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935443</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80363407068134</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P45" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713474</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095294</v>
       </c>
       <c r="R45" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01765720351203596</v>
+        <v>0.01765720351203595</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H46" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I46" t="n">
-        <v>6.766626335615721</v>
+        <v>6.766626335615717</v>
       </c>
       <c r="J46" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K46" t="n">
-        <v>26.14192399309821</v>
+        <v>26.14192399309819</v>
       </c>
       <c r="L46" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M46" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N46" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799861</v>
       </c>
       <c r="O46" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P46" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.84141329424316</v>
+        <v>18.84141329424315</v>
       </c>
       <c r="R46" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S46" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.961400960622547</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262828</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>10.16047399767045</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L12" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>380.423838424175</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O12" t="n">
-        <v>114.8222138186696</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P12" t="n">
         <v>235.7389829927417</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.20416659259924</v>
+        <v>54.2655385134049</v>
       </c>
       <c r="K13" t="n">
-        <v>135.589033199928</v>
+        <v>120.5276612791224</v>
       </c>
       <c r="L13" t="n">
-        <v>61.04268762206326</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M13" t="n">
-        <v>206.5716200456481</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N13" t="n">
         <v>210.2812465399399</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068237</v>
       </c>
       <c r="K14" t="n">
         <v>167.863300254996</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427583</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K15" t="n">
-        <v>169.9628154850615</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M15" t="n">
         <v>380.4238384241749</v>
       </c>
       <c r="N15" t="n">
-        <v>380.4238384241749</v>
+        <v>155.5129594188053</v>
       </c>
       <c r="O15" t="n">
-        <v>49.21459538438855</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P15" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340473</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>120.5276612791262</v>
+        <v>135.5890331999279</v>
       </c>
       <c r="L16" t="n">
-        <v>61.04268762206326</v>
+        <v>100.2468542146644</v>
       </c>
       <c r="M16" t="n">
         <v>206.571620045648</v>
       </c>
       <c r="N16" t="n">
-        <v>210.2812465399397</v>
+        <v>210.2812465399398</v>
       </c>
       <c r="O16" t="n">
         <v>188.1056909377296</v>
       </c>
       <c r="P16" t="n">
-        <v>156.2089440851004</v>
+        <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526129</v>
+        <v>64.39597107526136</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068237</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427583</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K18" t="n">
-        <v>169.9628154850615</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L18" t="n">
-        <v>131.4259113501181</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4238384241749</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>380.4238384241749</v>
@@ -35978,7 +35978,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>221.2891269264855</v>
       </c>
       <c r="Q18" t="n">
         <v>104.3551970507805</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215354</v>
+        <v>3.87243216721534</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M19" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N19" t="n">
-        <v>78.56464550722723</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O19" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P19" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068237</v>
       </c>
       <c r="K20" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L20" t="n">
         <v>261.0539417397704</v>
       </c>
       <c r="M20" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N20" t="n">
         <v>297.4388820174311</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427583</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9628154850615</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L21" t="n">
-        <v>290.5606228478077</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N21" t="n">
         <v>380.4238384241749</v>
       </c>
       <c r="O21" t="n">
-        <v>300.6729066938564</v>
+        <v>210.8096911174891</v>
       </c>
       <c r="P21" t="n">
         <v>235.7389829927417</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215354</v>
+        <v>3.87243216721534</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M22" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N22" t="n">
-        <v>78.56464550722723</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O22" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P22" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068237</v>
       </c>
       <c r="K23" t="n">
         <v>167.863300254996</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427729</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K24" t="n">
-        <v>169.9628154850615</v>
+        <v>155.5129594188063</v>
       </c>
       <c r="L24" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>380.4238384241747</v>
+        <v>380.4238384241752</v>
       </c>
       <c r="N24" t="n">
-        <v>89.90534098452349</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>315.1227627601127</v>
@@ -36455,7 +36455,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215354</v>
+        <v>3.87243216721534</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M25" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N25" t="n">
-        <v>78.56464550722723</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O25" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P25" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>447.482942295883</v>
       </c>
       <c r="O26" t="n">
-        <v>385.2630835770081</v>
+        <v>385.2630835770076</v>
       </c>
       <c r="P26" t="n">
         <v>312.7431224494998</v>
@@ -36616,7 +36616,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362601</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K27" t="n">
-        <v>169.9628154850615</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L27" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M27" t="n">
-        <v>391.5748062873361</v>
+        <v>391.574806287336</v>
       </c>
       <c r="N27" t="n">
-        <v>417.8042963309016</v>
+        <v>417.8042963309015</v>
       </c>
       <c r="O27" t="n">
         <v>315.1227627601127</v>
@@ -36735,10 +36735,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.610097631882809</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.623012255520734</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.872432167215354</v>
+        <v>153.9164924456673</v>
       </c>
       <c r="L28" t="n">
-        <v>211.0867479005152</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M28" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N28" t="n">
-        <v>78.56464550722723</v>
+        <v>94.43490135288162</v>
       </c>
       <c r="O28" t="n">
-        <v>206.4331501834691</v>
+        <v>206.433150183469</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5364033308399</v>
+        <v>174.5364033308398</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.10336573305787</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>317.907360533448</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0980020182225</v>
+        <v>411.0980020182224</v>
       </c>
       <c r="M29" t="n">
         <v>457.2911585300419</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362606</v>
+        <v>31.68472776362604</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K30" t="n">
-        <v>169.9628154850615</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L30" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M30" t="n">
-        <v>391.5748062873361</v>
+        <v>391.574806287336</v>
       </c>
       <c r="N30" t="n">
-        <v>417.8042963309016</v>
+        <v>417.8042963309015</v>
       </c>
       <c r="O30" t="n">
         <v>315.1227627601127</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E31" t="n">
         <v>3.610097631882837</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,22 +36984,22 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.360211686809445</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.59299775914424</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.872432167215354</v>
+        <v>3.87243216721534</v>
       </c>
       <c r="L31" t="n">
-        <v>61.04268762206326</v>
+        <v>142.8049861649289</v>
       </c>
       <c r="M31" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N31" t="n">
-        <v>92.42533411989932</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O31" t="n">
         <v>206.4331501834691</v>
@@ -37008,7 +37008,7 @@
         <v>174.5364033308399</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.72343032100079</v>
+        <v>82.72343032100078</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>457.2911585300419</v>
       </c>
       <c r="N32" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958831</v>
       </c>
       <c r="O32" t="n">
         <v>385.2630835770078</v>
@@ -37090,7 +37090,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362606</v>
+        <v>31.68472776362607</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K33" t="n">
-        <v>169.9628154850615</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L33" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M33" t="n">
-        <v>391.5748062873361</v>
+        <v>391.574806287336</v>
       </c>
       <c r="N33" t="n">
-        <v>417.8042963309016</v>
+        <v>417.8042963309015</v>
       </c>
       <c r="O33" t="n">
         <v>315.1227627601127</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.428587260239652</v>
+        <v>1.428587260239681</v>
       </c>
       <c r="E34" t="n">
-        <v>3.610097631882837</v>
+        <v>3.610097631882866</v>
       </c>
       <c r="F34" t="n">
-        <v>4.623012255520763</v>
+        <v>4.623012255520791</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,10 +37221,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.360211686809445</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.59299775914424</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>153.9164924456674</v>
@@ -37233,19 +37233,19 @@
         <v>211.0867479005153</v>
       </c>
       <c r="M34" t="n">
-        <v>82.66410810984738</v>
+        <v>89.29668759834922</v>
       </c>
       <c r="N34" t="n">
-        <v>78.56464550722723</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O34" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P34" t="n">
-        <v>24.49234305238789</v>
+        <v>174.5364033308399</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100079</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068237</v>
       </c>
       <c r="K35" t="n">
         <v>167.863300254996</v>
@@ -37324,7 +37324,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.17844238427583</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K36" t="n">
-        <v>115.1833010381526</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L36" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N36" t="n">
-        <v>380.423838424175</v>
+        <v>300.6729066938565</v>
       </c>
       <c r="O36" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215354</v>
+        <v>3.87243216721534</v>
       </c>
       <c r="L37" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M37" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N37" t="n">
-        <v>78.56464550722723</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O37" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P37" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068237</v>
       </c>
       <c r="K38" t="n">
         <v>167.863300254996</v>
@@ -37561,7 +37561,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.17844238427583</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L39" t="n">
-        <v>194.6152709571452</v>
+        <v>235.4200211814157</v>
       </c>
       <c r="M39" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N39" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O39" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215354</v>
+        <v>3.87243216721534</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M40" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N40" t="n">
-        <v>78.56464550722723</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O40" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P40" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.76276805604391</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068237</v>
       </c>
       <c r="K41" t="n">
-        <v>214.0181655320031</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L41" t="n">
         <v>261.0539417397704</v>
@@ -37795,16 +37795,16 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P41" t="n">
-        <v>162.6990621710478</v>
+        <v>364.4679524181811</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.17844238427583</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003573</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.31057431372457</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.61033006392658</v>
+        <v>18.71308304348259</v>
       </c>
       <c r="K42" t="n">
-        <v>169.9628154850615</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L42" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M42" t="n">
-        <v>149.9385762741502</v>
+        <v>391.574806287336</v>
       </c>
       <c r="N42" t="n">
-        <v>417.8042963309016</v>
+        <v>417.8042963309015</v>
       </c>
       <c r="O42" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P42" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>104.3551970507805</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215354</v>
+        <v>3.87243216721534</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M43" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N43" t="n">
-        <v>78.56464550722723</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O43" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P43" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.76276805604394</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>76.77980871768942</v>
+        <v>30.62494344068237</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
@@ -38032,16 +38032,16 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P44" t="n">
-        <v>162.6990621710478</v>
+        <v>364.4679524181811</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.17844238427583</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5406826003574</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.31057431372459</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.61033006392658</v>
+        <v>18.71308304348259</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L45" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M45" t="n">
-        <v>391.5748062873361</v>
+        <v>391.574806287336</v>
       </c>
       <c r="N45" t="n">
-        <v>417.8042963309016</v>
+        <v>417.8042963309015</v>
       </c>
       <c r="O45" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P45" t="n">
-        <v>164.0655684646172</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>104.3551970507805</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215354</v>
+        <v>3.87243216721534</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M46" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N46" t="n">
-        <v>78.56464550722723</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O46" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P46" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
